--- a/output/only_primer/two_plasmid_system_result/two_plasmid_design_result.xlsx
+++ b/output/only_primer/two_plasmid_system_result/two_plasmid_design_result.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="190">
   <si>
     <t>ID</t>
   </si>
@@ -46,93 +46,201 @@
     <t>153019_ecoil_ybeL_ins;BA000036.3:153019-153020</t>
   </si>
   <si>
+    <t>Cgl0006_1176_G_A_sub;BA000036.3:6529-6530</t>
+  </si>
+  <si>
     <t>Cgl0141_cds_del;BA000036.3:153222-155613</t>
   </si>
   <si>
     <t>Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470</t>
   </si>
   <si>
+    <t>Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378</t>
+  </si>
+  <si>
     <t>Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459</t>
   </si>
   <si>
+    <t>Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092</t>
+  </si>
+  <si>
+    <t>Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020</t>
+  </si>
+  <si>
+    <t>Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAATCCTGTGAAGCCGAAACCTGCACTCA</t>
   </si>
   <si>
+    <t>CCAGGTCTCAATCCTCTCGAGGACTACGTTCACTACCTCA</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAATCCTGTGGTGAAACGCAAACATCCGTCC</t>
   </si>
   <si>
-    <t>CCAGGTCTCAATCCTGGTGGCTTGGTGATCAC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAATCCTACACGCAAATACTCTCCGGGC</t>
+    <t>CCAGGTCTCAATCCTGGTGGCTTGGTGATCACCTTGG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTTCCAGCGACACGAATAATCTGACCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTACACGCAAATACTCTCCGGGCG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTCTCCACTGCAGCGATCACAATGG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTCTCTACCGCAGCATTAGACAGCTGC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTAAAATGAAGGTAGCACTACTTGCTG</t>
   </si>
   <si>
     <t>GGTCCAGAGTTTCATGAACGAGTATTTGTATTTCAATGTC</t>
   </si>
   <si>
+    <t>GGTCCAGAGTTTCGCGGACAGGCCTTCACGAC</t>
+  </si>
+  <si>
     <t>GGTCCAGAGTTTTTTGGCACGACTTGATGTGAGCC</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCGCTGGCACCGGTATTCAATTGTATTGATTAAGCTTCCCAGGTTACGCGCAG</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTGCCACGCCTTAGCCACCTTCTGATTCTTCA</t>
+    <t>GGTCCAGAGTTtcatTCGCTTGCTTATAGGGTCAGGGG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGCCACGCCTTAGCCACCTTCTGATTCTTCAGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCAGACGGAGGGTCTGTTTAATGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAAAATAAGATTATGGCCGCGCTGATGC</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTGCCTTTTCATGCAGCAAAGAATGATCG</t>
   </si>
   <si>
     <t>CCAGGTCTCAATCCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCAGTAAACTCTGGACC</t>
   </si>
   <si>
+    <t>CCAGGTCTCAATCCTCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGAAACTCTGGACC</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAATCCTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAAAACTCTGGACC</t>
   </si>
   <si>
     <t>CCAGGTCTCAATCCTGGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCGCGACCGTGGCCATAAGTTAACATAACTAATTAACTCTGGACC</t>
   </si>
   <si>
+    <t>CCAGGTCTCAATCCTTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAagtaAACTCTGGACC</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAATCCTACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGCGGTGCGAACTCTGGACC</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGTAACTTTTAAGTTTTCTCGGTGATCC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAAAAACAATTGCCTGTACATTAAGAATTTG</t>
+    <t>CCAGGTCTCAATCCTCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTATTAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATCCTAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGACGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTAACTTTTAAGTTTTCTCGGTGATCCGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCGATTATTTCCGTGCGCGTTGGTGA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAAAAACAATTGCCTGTACATTAAGA</t>
   </si>
   <si>
     <t>CCAGGTCTCAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCA</t>
   </si>
   <si>
+    <t>CCAGGTCTCAAttaaGAAAACTCCTTTATTGTCGT</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCAT</t>
   </si>
   <si>
+    <t>CCAGGTCTCAAGTCTAGTGGTGGTGATGCGCTTCGG</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATTTATTCTTCTTCGCGCCCAATAA</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGGCACTGAAATTTCCGTCATGCCGACCG</t>
+  </si>
+  <si>
     <t>GGTCCAGAGTTAAGTCCGTGCAGAAATGCGGG</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTATAAAAGTTTGGTGAAGTCTTGTT</t>
+    <t>GGTCCAGAGTTTGTAAAGTTCGGACTTTTCTGGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTATAAAAGTTTGGTGAAGTCTTGT</t>
   </si>
   <si>
     <t>GGTCCAGAGTTTTTCCAAAATATCATTACCCACTGG</t>
   </si>
   <si>
+    <t>GGTCCAGAGTTATCCCTTCTCCGGCATCATCGT</t>
+  </si>
+  <si>
     <t>GGTCCAGAGTTCTGCAGCACACCGAGCAAAAGC</t>
   </si>
   <si>
+    <t>GGTCCAGAGTTCCGGAATTTACTATCCCGGCCGA</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTGCAGTGGCGCACCGCTATG</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTCCTCCAGAACGCGGTCGAGT</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAAGTAACTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTAACTCTGGACC</t>
   </si>
   <si>
+    <t>CCAGGTCTCAAGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACAAACTCTGGACC</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAAAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATAACTCTGGACC</t>
   </si>
   <si>
     <t>CCAGGTCTCAAAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAAAACTCTGGACC</t>
   </si>
   <si>
+    <t>CCAGGTCTCAAttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATAACTCTGGACC</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAATGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGAACTCTGGACC</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTT</t>
+    <t>CCAGGTCTCAAGTCTAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGGCACTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGT</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
+    <t>GGTCCAGAGTTCGGTTATTTCCGTGCGCGTTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
     <t>GGTCCAGAGTTAGAAAACTTAAAAGCGAACGTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
@@ -142,9 +250,21 @@
     <t>GGTCCAGAGTTCTGCGCGTAACCTGGGAAGCTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
+    <t>GGTCCAGAGTTCCACTTTGCAGACGGAGGGTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAGCCACCTTCTGATTCTTCTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCTCTTCCACATGAAGAGCAACTCTGGACC</t>
   </si>
   <si>
+    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCAATAAAGGCACGCGCAAAACTCTGGACC</t>
+  </si>
+  <si>
     <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCATCTTTTGAATTTTCGCTTGCAACTCTGGACC</t>
   </si>
   <si>
@@ -154,13 +274,22 @@
     <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGACGCGCATTGGACCCTTCGAACTCTGGACC</t>
   </si>
   <si>
+    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGGTGAAACGTCTGCCTCCCAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATCGGTGGAAGACTAAGAAGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATTAGAATAACTGAAGAAGAAACTCTGGACC</t>
+  </si>
+  <si>
     <t>ccdb_plasmid;primer</t>
   </si>
   <si>
     <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGA</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTAGGATCTTACCGCTGTTGAGA</t>
+    <t>GGTCCAGAGTTAGGATCTTACCGCTGTTGAGATCCA</t>
   </si>
   <si>
     <t>CCAGGTCTCAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTAACTCTGGACC</t>
@@ -169,12 +298,21 @@
     <t>CCAGGTCTCAAATGAACAAGGTTGCTCAATATTACC</t>
   </si>
   <si>
-    <t>GGTCCAGAGTTTTACGGCTCAAACGGGC</t>
+    <t>CCAGGTCTCAAatgaaaaacatcaatccaacgcaga</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTTTACGGCTCAAACGGGCGTCT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTttaaccgcgccacgctttatagc</t>
   </si>
   <si>
     <t>CCAGGTCTCAAATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAAAACTCTGGACC</t>
   </si>
   <si>
+    <t>CCAGGTCTCAAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaAACTCTGGACC</t>
+  </si>
+  <si>
     <t>SEQUENCING_PRIMER_1</t>
   </si>
   <si>
@@ -184,15 +322,30 @@
     <t>153019_ecoil_ybeL_ins;153019_ecoil_ybeL_ins;BA000036.3:153019-153020</t>
   </si>
   <si>
+    <t>Cgl0006_1176_G_A_sub;Cgl0006_1176_G_A_sub;BA000036.3:6529-6530</t>
+  </si>
+  <si>
     <t>Cgl0141_cds_del;Cgl0141_cds_del;BA000036.3:153222-155613</t>
   </si>
   <si>
     <t>Cgl0591_-1_Ppgk_promoter_ins;Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470</t>
   </si>
   <si>
+    <t>Cgl0851_ecoli_pgi_sub;Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378</t>
+  </si>
+  <si>
     <t>Cgl1386_327_18to15_sub;Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459</t>
   </si>
   <si>
+    <t>Cgl1436_1113_CAA_del;Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092</t>
+  </si>
+  <si>
+    <t>Cgl1790_1647_TCC_sub;Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020</t>
+  </si>
+  <si>
+    <t>Cgl2342_213_GCA_ins;Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875</t>
+  </si>
+  <si>
     <t>TGGTCAATGTCGCGGGGG</t>
   </si>
   <si>
@@ -202,18 +355,48 @@
     <t>SEQUENCING_PRIMER_2_TM</t>
   </si>
   <si>
+    <t>SEQUENCING_PRIMER_3</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_3_TM</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_4</t>
+  </si>
+  <si>
+    <t>SEQUENCING_PRIMER_4_TM</t>
+  </si>
+  <si>
     <t>TGCTCACCCAGAAACGCTG</t>
   </si>
   <si>
     <t>TACCGCTCGCCGCAGCC</t>
   </si>
   <si>
+    <t>acaggatctggcgaaagagtgcg</t>
+  </si>
+  <si>
+    <t>cgcgaagtggttgagcagga</t>
+  </si>
+  <si>
     <t>SEQUENCING_TARGET</t>
   </si>
   <si>
     <t>SEQUENCING_TARGET_LENGTH</t>
   </si>
   <si>
+    <t>GCAACGGAACTATCCCTCGA</t>
+  </si>
+  <si>
+    <t>GCGCGCACATTCAGGCCG</t>
+  </si>
+  <si>
+    <t>ACAGCCCTGAACTGCCAAACCA</t>
+  </si>
+  <si>
+    <t>CCGTCAATGCTTGGTTCGGCC</t>
+  </si>
+  <si>
     <t>ACACCATCTACACCCGCGACA</t>
   </si>
   <si>
@@ -226,6 +409,21 @@
     <t>AGGACTCGACGAGCTCCACA</t>
   </si>
   <si>
+    <t>CCACCGACGTGACGCGGA</t>
+  </si>
+  <si>
+    <t>AGGCGGGCCTTTTCCACGT</t>
+  </si>
+  <si>
+    <t>TGCTGCTCGCCACCGTGA</t>
+  </si>
+  <si>
+    <t>ACCAAATAAATGTTAGACCCAGT</t>
+  </si>
+  <si>
+    <t>TGTCTAGGTACTTCCGCAGCCA</t>
+  </si>
+  <si>
     <t>CCACGGATGGTGCCCTCA</t>
   </si>
   <si>
@@ -238,6 +436,21 @@
     <t>AGAAGAATCCCCGCAGCTCTG</t>
   </si>
   <si>
+    <t>AGCCGACCACCGCATCCC</t>
+  </si>
+  <si>
+    <t>GCAACGGAACTATCCCTCGATGAGATCGACAACGAAACCGAACTCGTTGAAGAGACCACCGATGCTCCAAAGAAGCCAAAAAAGCGTGAGAAGAAGAAAATCTTCCACTACCCCAATGGCCTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATCGTGGAGGGCGACTCCGCAGGTGGTTCTGCGAAGTCCGGCCGTGACTCCATGTTCCAGGCAATCCTTCCACTGCGAGGCAAGATCCTCAACGTGGAAAAGGCCCGCC</t>
+  </si>
+  <si>
+    <t>GCGCGCACATTCAGGCCGATCAAACCAAAGGCAACGCCAGTAAACAGCACCTCAATGGTTCCCCAGAACGCAGAACCCGTTAGACGATCCTCCGCACCAATCGACGCCCTCGAATTCATCTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGCAAAAATGGCAACAACGCTCCACCTGCGGCGACAATAGTCATCAAAGCAGGCCAGGGGAGTCCGGTTTTATCGCCGATGGCCACCACAATCACGGTGGCGAGCA</t>
+  </si>
+  <si>
+    <t>ACAGCCCTGAACTGCCAAACCATCAGCAGTTTTCCACTGGTTCTCTAACCCCCTAAACTACCCCCTTTTGATGTAACACATAACTCAGTCTTGCGATATTAGATAATGAGTCAGAAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGGCACTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTACCCGAATTGGGTATCCGGCGCCAAGGAACAGTCGTCCCCCCGGGGCGCTTTGAGCGTATCGCCAACCGCCTCCGCAACGATTTCAACTGGGTCTAACATTTATTTGGT</t>
+  </si>
+  <si>
+    <t>CCGTCAATGCTTGGTTCGGCCTGATGTGTTCGTGAAATTCTTCGAGAGTTGTCGCAGCGATAACGCGCACACCAAGGACACCAGACATCGCCAAAATCGGCTTGATTGCCTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTCTTGTGACATATACACCCATGGACTGTCCATACATGGTGGATACGCCTTCATCCGCATAAGCCCAAAAGGGCCAACAATCATGGCTGCGGAAGTACCTAGACA</t>
+  </si>
+  <si>
     <t>ACACCATCTACACCCGCGACATCGAACCACTTATTTAATCCGAGCACTTCAGCTACACCTATTTAAGGAGGCTGTGACATGGCGTCAATCGTCTTTGAAAACGTCACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGCAAGTAGACACCCCGCAGAACCTGTACGACTACCCAGCAAATGCGTTCGTCGCCAGCTTCATTGGTTCCCCTTCCATGAACTTGATTGAGGGCACCATCCGTGGCGATAAGGTCACT</t>
   </si>
   <si>
@@ -250,6 +463,9 @@
     <t>AGGACTCGACGAGCTCCACATCATCGCTCCATCAGTCCACCTACCCGCTCTCGCAGTAGCAGCCGCCGACATCGCACACCATCTGCCAGAGAAATTCCAATTCTGTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAACTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTGGCTGTACGGGCCAGACCAGAAACTACGCAGGTCATCGGTAACTGCAAGAGGTCTTCCCGCAGGTGACAGGAGATGAAATTGCACCGGGATTCCGCAGAGCTGCGGGGATTCTTCT</t>
   </si>
   <si>
+    <t>CCACCGACGTGACGCGGAAAATACTCCCTAACAGCAATCGGAAGCAACACATTGGTAACTCCGATCGCAAACATCGCGAACACAGTACCGACCATCAACAGCGAAGCAGGTCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATCGAGAAGGTAGGTGACTCGGCCGTCGGTTTTCATGTTGTGGTGGTGTTGACAGAGGCAGCCGATTCCGCCTAGGCAAGTTTCTCCGCCTTCTTCGTAGGGGATGCGGTGGTCGGCT</t>
+  </si>
+  <si>
     <t>SEQUENCE</t>
   </si>
   <si>
@@ -271,15 +487,30 @@
     <t>GTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTT</t>
   </si>
   <si>
+    <t>CTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGTTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACA</t>
+  </si>
+  <si>
     <t>GTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTAT</t>
   </si>
   <si>
     <t>GGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAA</t>
   </si>
   <si>
+    <t>TCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGAT</t>
+  </si>
+  <si>
     <t>ACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAG</t>
   </si>
   <si>
+    <t>CTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGG</t>
+  </si>
+  <si>
+    <t>CTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGC</t>
+  </si>
+  <si>
+    <t>AAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGCTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGG</t>
+  </si>
+  <si>
     <t>NOT</t>
   </si>
   <si>
@@ -289,18 +520,36 @@
     <t>GTGAAGCCGAAACCTGCACTCATCTCCACCCCGACGATGACACCTATCTCACGGCTGAATCCGTTGCTCAATTGGGTACGAAGCTGAAGTCTGCGTAGTTGTTAGGAGCCACCACAGACCCGTAGATTCTTGGGCGGTGTGGTGAATCCTTGCCCTGGAACCTTGCGGGAGACTCTCAGAAATGAGTCATTGGGGCTTGGGGTGTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCATGAACAAGGTTGCTCAATATTACCGTGAACTGGTTGCGTCACTGAGCGAACGCCTGCGCAATGGCGAACGTGATATCGACGCACTGGTGGAACAGGCGCGCGAGCGCGTAATAAAAACAGGGGAGTTAACGCGAACCGAGGTCGATGAGCTGACGCGAGCTGTCAGACGTGACCTGGAAGAGTTCGCCATGAGCTATGAAGAGAGCCTGAAAGAAGAATCTGACAGCGTCTTTATGCGGGTGATTAAAGAAAGCTTGTGGCAGGAGCTGGCAGACATCACCGATAAAACGCAGCTTGAATGGCGCGAAGTTTTCCAGGACCTCAATCATCATGGGGTTTATCACAGCGGAGAAGTGGTCGGGCTGGGAAATCTGGTCTGCGAGAAATGTCACTTCCATCTCCCGATCTACACACCGGAAGTGCTGACGCTATGCCCGAAATGTGGTCATGACCAGTTCCAGAGACGCCCGTTTGAGCCGTAACTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACTACATGCGATTCTTGGTGCGCGCAGTGGCAGGAGCGGTCCATGGATCCTCCGGCCACGGGTGTTTGGGGTACCGGCCCCGCATTTCTGCACGGACTTTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
   </si>
   <si>
+    <t>CTCGAGGACTACGTTCACTACCTCAACCGCAGCAAGACCAACATCCACCCTTCAATCGTGTCATTCGAGGCAAAGGGAGATGACCACGAGGTTGAGGTGGCAATGCAGTGGAACTCCTCCTACAAGGAATCCGTCCACACCTTCGCCAACACCATTAACACCCGCGAAGGCGGCACCCACGAGGAAGGTTTCCGCTCTGCGCTGACCTCCCTGATGAACCGCTACGCACGTGAGCACAAGCTTCTGAAAGAAAAGGAAGCAAACCTTACCGGTGACGACTGTCGTGAAGGCCTGTCCGCGATTATTTCCGTGCGCGTTGGTGACCCACAGTTCGAAGGCCAGACCAAAACCAAGCTGGGCAACACGGAGATCAAATCCTTCGTGCAGCGCATGGCCAACGAGCACATCGGCCACTGGTTGGAAGCAAACCCTGCTGAAGCCAAGGTCATCATCAACAAGGCTGTCGGTTCCGCGCAGGCACGCCTTGCTGCTCGAAAAGCCCGTGACCTGGTCCGACGGAAGTCAGCAACCGATCTGGGTGGACTGCCCGGTAAGCTTGCCGACTGCCGTTCCAAGGATCCAGAAAAGTCCGAACTTTACATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
     <t>GTGGTGAAACGCAAACATCCGTCCCCGGACCGCGGTAAAAGGCCGATTTTGATCGAAAATTCCTGCTAATCCGACATTGAAATACAAATACTCGTTCGCTTTTAAGTTTTCTCGGTGATCCGTAACGAGAAGTTGAACAGCAAACCCGCAGCAACTGTTCAGAAATCACAACAGTCCCAATGACCTCAAAATCGGCCCCTTCTAGAATCGCCTCTCAGGGCCTTTGAGCGCTAAATTGGGGCAACAGGTCACTGCGTACAAAGAGGGCCTTAAATCGGCTCACATCAAGTCGTGCCAAAACAATTGCCTGTACATTAAGAATTTGCTGAGTGAACACATCTTTTTCCTAACTTCTACAGAGAAACCTAAGGCGATGATGTGTTTTCTAGCGGGTTGTGGAAAGTAAATTTTTCCTTCGTGGCGAAGCGGATATCCCCACAAAGAGATGTCATTTTCTAACGTAAGGGCACTGTCCTTTCAAGAGTTGCGCCAGGGGTTGTGCTCTTATATCTAACCGTATCGACAAGATTCATTATGGAATGGAAAGTAGGAAAGTCATTGTGGGCTGTGCTGAGAAACAAGACTTCACCAAACTTTTATTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
   </si>
   <si>
     <t>GGTGGCTTGGTGATCACCTTGGCCTCTGCGCTGCTGTGTGCTGTGATCGGCATGTGGGTACTCAGGTTGAGGTGGGATGAAGCCATGGGTGTTGCCGCTGGCACCACCACAAATCCTGCAATTATTTCCTATCTGAATGGGCAAACCGGAACGGATCTTGCCAACAGGGGATATGCCACTGTGTACCCCACGGCGATGATCGGTAAAATCCTCGGCGCGCAGATATTGTTCTTGCTGCTCTAAGGTGATTTTTGGGCAGTGGTGGGGGTGGTGTCCACCCCTGCGCGTAACCTGGGAAGCTTAATCAATACAATTGAATACCGGTGCCAGCGCCACACAATGTGTAGTCAGGCAATCTGGGACATGACTAAAACACTTGGTTCCCTTCAGCTGGAAGAAATCACGCTGACCCTCCCTCTGACTGAAGATGTGGCCGATGAACGCACCATTGATGTGTTCGCACGCATTGCCACACGCGTCGGTGGGGAAGACCTTCCATATTTAGTATTCCTGCAGGGTGGGCCTGGCAATGAAGCTCCACGTCCAAGCCTTAATCCCCTCAACCCCAATTGGTTGGGCGTGGCCTTGGAGGAATACCGCGTGGTCATGTTGGATCAACGTGGCACCGGCCGTTCCACCCCAGTGGGTAATGATATTTTGGAAATGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
   </si>
   <si>
+    <t>TCCAGCGACACGAATAATCTGACCGGCAGCAGTCAACAGCATGGCAAACATCAACAGTTGGGAAGTAGTGAACTTCCTCTTCAACGACGGAAGCGCAAACGCAGCAACCGCGAACATAGCAGTCGGGATCATGCCCAACACACCAATAAGAGAAGCACTAACCCCTAAATCATCCCGAATCTCAGAAACCAGCGGAGCTAAAGCAGTAATAGCTGTTCGCAGATTGAACGAGGTCAGGATGATAGCGGCCAGTGCTATGAGGCGAGGATTCTTCACGCCCCTGACCCTATAAGCAAGCGAatgaaaaacatcaatccaacgcagaccgctgcctggcaggcactacagaaacacttcgatgaaatgaaagacgttacgatcgccgatctttttgctaaagacggcgatcgtttttctaagttctccgcaaccttcgacgatcagatgctggtggattactccaaaaaccgcatcactgaagagacgctggcgaaattacaggatctggcgaaagagtgcgatctggcgggcgcgattaagtcgatgttctctggcgagaagatcaaccgcactgaaaaccgcgccgtgctgcacgtagcgctgcgtaaccgtagcaataccccgattttggttgatggcaaagacgtaatgccggaagtcaacgcggtgctggagaagatgaaaaccttctcagaagcgattatttccggtgagtggaaaggttataccggcaaagcaatcactgacgtagtgaacatcgggatcggcggttctgacctcggcccatacatggtgaccgaagctctgcgtccgtacaaaaaccacctgaacatgcactttgtttctaacgtcgatgggactcacatcgcggaagtgctgaaaaaagtaaacccggaaaccacgctgttcttggtagcatctaaaaccttcaccactcaggaaactatgaccaacgcccatagcgcgcgtgactggttcctgaaagcggcaggtgatgaaaaacacgttgcaaaacactttgcggcgctttccaccaatgccaaagccgttggcgagtttggtattgatactgccaacatgttcgagttctgggactgggttggcggccgttactctttgtggtcagcgattggcctgtcgattgttctctccatcggctttgataacttcgttgaactgctttccggcgcacacgcgatggacaagcatttctccaccacgcctgccgagaaaaacctgcctgtactgctggcgctgattggcatctggtacaacaatttctttggtgcggaaactgaagcgattctgccgtatgaccagtatatgcaccgtttcgcggcgtacttccagcagggcaatatggagtccaacggtaagtatgttgaccgtaacggtaacgttgtggattaccagactggcccgattatctggggtgaaccaggcactaacggtcagcacgcgttctaccagctgatccaccagggaaccaaaatggtaccgtgcgatttcatcgctccggctatcacccataacccgctctctgatcatcaccagaaactgctgtctaacttcttcgcccagaccgaagcgctggcgtttggtaaatcccgcgaagtggttgagcaggaatatcgtgatcagggtaaagatccggcaacgcttgactacgtggtgccgttcaaagtattcgaaggtaaccgcccgaccaactccatcctgctgcgtgaaatcactccgttcagcctgggtgcgttgattgcgctgtatgagcacaaaatctttactcagggcgtgatcctgaacatcttcaccttcgaccagtggggcgtggaactgggtaaacagctggcgaaccgtattctgccagagctgaaagatgataaagaaatcagcagccacgatagctcgaccaatggtctgattaaccgctataaagcgtggcgcggttaaGAAAACTCCTTTATTGTCGTTAAATAACATCTTCAGGTTAGCTTGCTTTTGTGGCCAAGCGCATCGAAGAGTGTTCAAAGTGGGAAACACGACAAATTTAGGTGCGTTTATTGGGCTGCTTTTCGACGTGGCCATCCGGCTACTTGGCGTCCTCCTTAACCCAACGCTTGTGGTGGCGTGCCCGGTGTTGGGCGACTGTTTGCGCCCATCTCGCATTTTTGGGATTGAGCGGCCCGTTGGGTTCTGACACTGCCCATGTTCCGTCTCCCATGAGCCAGACGATGATGCCGGAGAAGGGATTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
     <t>ACACGCAAATACTCTCCGGGCGCACGCCCGGCCGTCGACAAGCTTAATTTGGAAATCGCCGACGGCGAGTTCCTAGTTCTCGTTGGACCCTCAGGCTGTGGAAAGTCCACTTCTTTGCGCATGCTGGCTGGTCTTGAGCCTATCGACGAGGGACGTCTACTCATTGATGGTAAAGACGCCACGGAACTGCGTCCGCAGGATCGTGACATCGCTATGGTCTTCCAGAGCTACGCGCTGTACCCGAATATGACTGTTCGGGACAACATGGGCTTTGCGCTGAAGAATCAGAAGGTGGCTAAGGCGTGGCGCGGTTAAGTTGCTGAAGCCTCACGCATTCTGCAGCTGGATCCGTATCTTGATCGTAAGCCTGCAGCTTTGTCTGGTGGTCAGCGCCAGCGCGTGGCCATGGGCCGTGCAATTGTGCGTGAGCCATCGGTGTTCTGCATGGATGAGCCACTGTCCAACCTAGATGCGAAGCTGCGTGTGTCTACGCGTGCGGAGATCTCTGGTTTGCAGCGTCGCATGGGCGTGACCACGGTGTATGTGACTCACGATCAGGTCGAGGCCATGACCATGGGTGATCGCGTCGCTGTGCTTTTGCTCGGTGTGCTGCAGTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
   </si>
   <si>
+    <t>CTCCACTGCAGCGATCACAATGGCGATAACGCCCGAACCGCCGATTTCTTCCGCCACCACATAAATGGCAAACGGCAGCACCCACGTAAACGCATTTCGAGCCTCAACGGAACTCACGTGATCGGTAAACCACGCAGCCGCCCGGCCAATAACCAAGCCCAAAATAACGGCAGCAAGACACGACCACAAGAATTCCAAAACACCCGTTGACCAGGACAAATCCTCACCAGCGACCAGGGCAGCTAAAGCCACATGGAACGCCACGATGCTGGCTGCATCATTAAACAGACCCTCCGTCTGAGTGGTGGTGATGCGCTTCGGGATTCCCGCAGGTTCCGCCACTGCATCAACAGCAACAGGATCCGGTGGAGCAATAGCCGCAGCCAACATGATCGCACCAGCAAGACCAATGCCAGGAAGCAACAGCATGGATGCACCCGTGAGTGCCGCGATGGTCACGAACACCAACAACACCGACATCGTGATGATGGTAGACATCTGCGACCTAATCACCGCCCACGATGACTTCCTCGCCAGCGCCCACAGCAGCGGCGGAATGAAAATAGGCAACATCAGATCGGCCGGGATAGTAAATTCCGGTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>CTCTACCGCAGCATTAGACAGCTGCACAATTTGGTGAAACTCATCAACGAACAGCACCAATTCATGACCTTCGTGCTTGCGATAGGCAATGGCGTCCTCAAACACACCTTTAATACGCGCAGCCATTTGCGCCGGGGTGCTCAAATCCGCAACCATTTTCGCTACATCGACCTCGATGTAGTTACGCTCTGGATCTTTCACCAGTGCTTGCTGTACCAACGTAGTTTTACCCGAACCAGCAGGACCCACAAGCATGACATTAGAAATCTCTGGACGCATCAGCGCGGCCATAATCTTATTTTATTCTTCTTCGCGCCCAATAATCTCACGCACCGGTACAGCAACAGGCGCTGCATACGAGCTCAAATAAGGGTACTTGTCTTCATCAATCTCACGATTAATCGACTCTCCCACCAACGTACCCGCCACAACCTGGGTCATCTTCCCACCTTTACAAAAAAGTTAATTGAATTTAATAATTAATTAAATACTACACTTTATTAACTAATTTGTTAATGCAGATTATCCCCGTAAATATTGTCCCAGTGCTCAACAAAAGACACCTCGGTCTGCTGTGCCGCACCCATAGCGGTGCGCCACTGCTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
+    <t>AAAATGAAGGTAGCACTACTTGCTGGATTAATTTTCAAGGTTTTCTTTCAGAAATTAATCCATAGCCGATATTTAAGGTGAGAACACATGAGCTCCACGCTCGCACGAAAAGCTTCAGGCGACGGTTCCGAAAAGAAGAAGCCTGGCTTGTTTAGACGTGCGCTTCGTTTCCTCACCCACCCACCTCACAAACAGGTAGACAACAGCCTTGCGGATATCCGTGAAGGATTAGGCCTCGGGGTGGACGATTCCCACGAAGGATCCAAACCCAGCAACGATCATTCTTTGCTGCATGAAAAGGCACTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCT</t>
+  </si>
+  <si>
     <t>TTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCG</t>
   </si>
   <si>
+    <t>TTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAACGCGCACGGAAATAACCG</t>
+  </si>
+  <si>
     <t>TTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGTTCGCTTTTAAGTTTTCT</t>
   </si>
   <si>
@@ -310,12 +559,24 @@
     <t>TTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTTCCCAGGTTACGCGCAG</t>
   </si>
   <si>
+    <t>TTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAACCCTCCGTCTGCAAAGTGG</t>
+  </si>
+  <si>
+    <t>TTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGAAGAATCAGAAGGTGGCTA</t>
+  </si>
+  <si>
+    <t>TTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAGAAGAAGTCAATAAGATTA</t>
+  </si>
+  <si>
     <t>sgRNA_plasmid</t>
   </si>
   <si>
     <t>AATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGAATTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGAGAAGTACACCTTCTCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATT</t>
   </si>
   <si>
+    <t>AATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGAATTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAACGCGCACGGAAATAACCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATT</t>
+  </si>
+  <si>
     <t>AATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGAATTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCACGTTCGCTTTTAAGTTTTCTGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATT</t>
   </si>
   <si>
@@ -323,6 +584,15 @@
   </si>
   <si>
     <t>AATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGAATTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCTTCCCAGGTTACGCGCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATT</t>
+  </si>
+  <si>
+    <t>AATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGAATTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAACCCTCCGTCTGCAAAGTGGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATT</t>
+  </si>
+  <si>
+    <t>AATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGAATTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGAAGAATCAGAAGGTGGCTAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATT</t>
+  </si>
+  <si>
+    <t>AATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGAATTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGGTGAAAGTAAAAGATGCTGAAGATCAGTTGGGTGCACGAGTGGGTTACATCGAACTGGATCTCAACAGCGGTAAGATCCTTGAGAGTTTTCGCCCCGAAGAACGTTTTCCAATGATGAGCACTTTTGCTTCCTCGCTCACTGACTCGCTGCGCTCGGTCGTTCGGCTGCGGCGAGCGGTATCAGCTCACTCAAAGGCGGTAATACGGTTATCCACAGAATCAGGGGATAACGCAGGAAAGAACATGTGAGCAAAAGGCCAGCAAAAGGCCAGGAACCGTAAAAAGGCCGCGTTGCTGGCGTTTTTCCATAGGCTCCGCCCCCCTGACGAGCATCACAAAAATCGACGCTCAAGTCAGAGGTGGCGAAACCCGACAGGACTATAAAGATACCAGGCGTTTCCCCCTGGAAGCTCCCTCGTGCGCTCTCCTGTTCCGACCCTGCCGCTTACCGGATACCTGTCCGCCTTTCTCCCTTCGGGAAGCGTGGCGCTTTCTCAATGCTCACGCTGTAGGTATCTCAGTTCGGTGTAGGTCGTTCGCTCCAAGCTGGGCTGTGTGCACGAACCCCCCGTTCAGCCCGACCGCTGCGCCTTATCCGGTAACTATCGTCTTGAGTCCAACCCGGTAAGACACGACTTATCGCCACTGGCAGCAGCCACTGGTAACAGGATTAGCAGAGCGAGGTATGTAGGCGGTGCTACAGAGTTCTTGAAGTGGTGGCCTAACTACGGCTACACTAGAAGGACAGTATTTGGTATCTGCGCTCTGCTGAAGCCAGTTACCTTCGGAAAAAGAGTTGGTAGCTCTTGATCCGGCAAACAAACCACCGCTGGTAGCGGTGGTTTTTTTGTTTGCAAGCAGCAGATTACGCGCAGAAAAAAAGGATCTCAAGAAGATCCTTTGATCTTTTCTACGGGGTCTGACGCTCAGTGGAACGAAAACTCACGTTAAGGGATTTTGGTCATGAGATTATCAAAAAGGATCTTCACCTAGATCCTTTTGGGGTGGGCGAAGAACTCCAGCATGAGATCCCCGCGCTGGAGGATCATCCAGCCATTCGGGGTCGTTCACTGGTTCCCCTTTCTGATTTCTGGCATAGAAGAACCCCCGTGAACTGTGTGGTTCCGGGGGTTGCTGATTTTTGCGAGACTTCTCGCGCAATTCCCTAGCTTAGGTGAAAACACCATGAAACACTAGGGAAACACCCATGAAACACCCATTAGGGCAGTAGGGCGGCTTCTTCGTCTAGGGCTTGCATTTGGGCGGTGATCTGGTCTTTAGCGTGTGAAAGTGTGTCGTAGGTGGCGTGCTCAATGCACTCGAACGTCACGTCATTTACCGGGTCACGGTGGGCAAAGAGAACTAGTGGGTTAGACATTGTTTTCCTCGTTGTCGGTGGTGGTGAGCTTTTCTAGCCGCTCGGTAAACGCGGCGATCATGAACTCTTGGAGGTTTTCACCGTTCTGCATGCCTGCGCGCTTCATGTCCTCACGTAGTGCCAAAGGAACGCGTGCGGTGACCACGACGGGCTTAGCCTTTGCCTGCGCTTCTAGTGCTTCGATGGTGGCTTGTGCCTGCGCTTGCTGCGCCTGTAGTGCCTGTTGAGCTTCTTGTAGTTGCTGTTCTAGCTGTGCCTTGGTTGCCATGCTTTAAGACTCTAGTAGCTTTCCTGCGATATGTCATGCGCATGCGTAGCAAACATTGTCCTGCAACTCATTCATTATGTGCAGTGCTCCTGTTACTAGTCGTACATACTCATATTTACCTAGTCTGCATGCAGTGCATGCACATGCAGTCATGTCGTGCTAATGTGTAAAACATGTACATGCAGATTGCTGGGGGTGCAGGGGGCGGAGCCACCCTGTCCATGCGGGGTGTGGGGCTTGCCCCGCCGGTACAGACAGTGAGCACCGGGGCACCTAGTCGCGGATACCCCCCCTAGGTATCGGACACGTAACCCTCCCATGTCGATGCAAATCTTTAACATTGAGTACGGGTAAGCTGGCACGCATAGCCAAGCTAGGCGGCCACCAAACACCACTAAAAATTAATAGTCCCTAGACAAGACAAACCCCCGTGCGAGCTACCAACTCATATGCACGGGGGCCACATAACCCGAAGGGGTTTCAATTGACAACCATAGCACTAGCTAAGACAACGGGCACAACACCCGCACAAACTCGCACTGCGCAACCCCGCACAACATCGGGTCTAGGTAACACTGAGTAACACTGAAATAGAAGTGAACACCTCTAAGGAACCGCAGGTCAATGAGGGTTCTAAGGTCACTCGCGCTAGGGCGTGGCGTAGGCAAAACGTCATGTACAAGATCACCAATAGTAAGGCTCTGGCGGGGTGCCATAGGTGGCGCAGGGACGAAGCTGTTGCGGTGTCCTGGTCGTCTAACGGTGCTTCGCAGTTTGAGGGTCTGCAAAACTCTCACTCTCGCTGGGGGTCATCTCTGGCTGAATTGGAAGTCATGGGCGAACGCCGCATTGAGCTGGCTATTGCTACTAAGAATCACTTGGCGGCGGGTGGCGCGCTCATGATGTTTGTGGGCACTGTTCGACACAACCGCTCACAGTCATTTGCGCAGGTTGAAGCGGGTATTAAGACTGCGTACTCTTCGATGGTGAAAACATCTCAGTGGAAGAAAGAACGTGCACGGTACGGGGTGGAGCACACCTATAGTGACTATGAGGTCACAGACTCTTGGGCGAACGGTTGGCACTTGCACCGCAACATGCTGTTGTTCTTGGATCGTCCACTGTCTGACGATGAACTCAAGGCGTTTGAGGATTCCATGTTTTCCCGCTGGTCTGCTGGTGTGGTTAAGGCCGGTATGGACGCGCCACTGCGTGAGCACGGGGTCAAACTTGATCAGGTGTCTACCTGGGGTGGAGACGCTGCGAAAATGGCAACCTACCTCGCTAAGGGCATGTCTCAGGAACTGACTGGCTCCGCTACTAAAACCGCGTCTAAGGGGTCGTACACGCCGTTTCAGATGTTGGATATGTTGGCCGATCAAAGCGACGCCGGCGAGGATATGGACGCTGTTTTGGTGGCTCGGTGGCGTGAGTATGAGGTTGGTTCTAAAAACCTGCGTTCGTCCTGGTCACGTGGGGCTAAGCGTGCTTTGGGCATTGATTACATAGACGCTGATGTACGTCGTGAAATGGAAGAAGAACTGTACAAGCTCGCCGGTCTGGAAGCACCGGAACGGGTCGAATCAACCCGCGTTGCTGTTGCTTTGGTGAAGCCCGATGATTGGAAACTGATTCAGTCTGATTTCGCGGTTAGGCAGTACGTTCTCGATTGCGTGGATAAGGCTAAGGACGTGGCCGCTGCGCAACGTGTCGCTAATGAGGTGCTGGCAAGTCTGGGTGTGGATTCCACCCCGTGCATGATCGTTATGGATGATGTGGACTTGGACGCGGTTCTGCCTACTCATGGGGACGCTACTAAGCGTGATCTGAATGCGGCGGTGTTCGCGGGTAATGAGCAGACTATTCTTCGCACCCACTAAAAGCGGCATAAACCCCGTTCGATATTTTGTGCGATGAATTTATGGTCAATGTCGCGGGGGCAAACTATGATGGGTCTTGTTGTTGGCGTCCCGGAAAACGATTCCGAAGCCCAACCTTTCATAGAAGGCGGCGGTGGAATTTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAAGAAGAAGTCAATAAGATTAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATT</t>
   </si>
 </sst>
 </file>
@@ -680,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,13 +984,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>330</v>
@@ -734,16 +1004,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F3">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -754,16 +1024,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F4">
-        <v>358</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -774,16 +1044,116 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5">
-        <v>333</v>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -793,7 +1163,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -807,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -830,22 +1200,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="D2">
         <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="H2">
         <v>11346</v>
@@ -856,22 +1226,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="D3">
         <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="H3">
         <v>11346</v>
@@ -882,22 +1252,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c r="D4">
         <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="H4">
         <v>11346</v>
@@ -908,24 +1278,154 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
       <c r="D5">
         <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="H5">
+        <v>11346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6">
+        <v>11346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7">
+        <v>73</v>
+      </c>
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7">
+        <v>11346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8">
+        <v>11346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9">
+        <v>11346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10">
         <v>11346</v>
       </c>
     </row>
@@ -936,7 +1436,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -970,13 +1470,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>326</v>
@@ -990,13 +1490,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>326</v>
@@ -1010,16 +1510,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="F4">
-        <v>358</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1030,16 +1530,116 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7">
         <v>334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -1049,7 +1649,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1083,13 +1683,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="F2">
         <v>486</v>
@@ -1103,13 +1703,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>486</v>
@@ -1123,13 +1723,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F4">
         <v>486</v>
@@ -1143,15 +1743,115 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="F5">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10">
         <v>486</v>
       </c>
     </row>
@@ -1193,16 +1893,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="F2">
         <v>10904</v>
@@ -1215,7 +1915,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1249,16 +1949,36 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="F2">
         <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3">
+        <v>1672</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +1988,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1282,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1293,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="D2">
         <v>62.40252848344147</v>
@@ -1307,10 +2027,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="D3">
         <v>62.40252848344147</v>
@@ -1321,10 +2041,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="D4">
         <v>62.40252848344147</v>
@@ -1335,12 +2055,82 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="D5">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9">
+        <v>62.40252848344147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10">
         <v>62.40252848344147</v>
       </c>
     </row>
@@ -1351,13 +2141,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1365,19 +2155,31 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>109</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1385,19 +2187,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="D2">
         <v>60.59785390246162</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="F2">
         <v>65.39684924843954</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1405,13 +2207,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="D3">
         <v>60.59785390246162</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3">
+        <v>65.39684924843954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1419,19 +2227,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="D4">
         <v>60.59785390246162</v>
       </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4">
-        <v>65.39684924843954</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1439,15 +2241,121 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="D5">
         <v>60.59785390246162</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="F5">
+        <v>65.39684924843954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6">
+        <v>65.39684924843954</v>
+      </c>
+      <c r="G6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6">
+        <v>65.15385345255226</v>
+      </c>
+      <c r="I6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6">
+        <v>63.04183328682285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7">
+        <v>65.39684924843954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8">
+        <v>60.59785390246162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9">
+        <v>65.39684924843954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10">
+        <v>60.59785390246162</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10">
         <v>65.39684924843954</v>
       </c>
     </row>
@@ -1458,7 +2366,304 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <v>59.54133127379924</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2">
+        <v>64.7641895140049</v>
+      </c>
+      <c r="G2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3">
+        <v>65.40613093626928</v>
+      </c>
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3">
+        <v>64.63528015163649</v>
+      </c>
+      <c r="G3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4">
+        <v>64.93150880859542</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4">
+        <v>55.81070237481293</v>
+      </c>
+      <c r="G4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <v>64.7068639825622</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5">
+        <v>63.12237729036769</v>
+      </c>
+      <c r="G5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6">
+        <v>63.81048306105311</v>
+      </c>
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6">
+        <v>61.71619469010028</v>
+      </c>
+      <c r="G6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7">
+        <v>64.26239510560578</v>
+      </c>
+      <c r="E7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7">
+        <v>61.56387211013669</v>
+      </c>
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8">
+        <v>64.1495270510103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8">
+        <v>64.26794617737897</v>
+      </c>
+      <c r="G8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9">
+        <v>62.74970643811804</v>
+      </c>
+      <c r="E9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9">
+        <v>62.18408991060545</v>
+      </c>
+      <c r="G9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10">
+        <v>64.96789884238098</v>
+      </c>
+      <c r="E10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10">
+        <v>64.83200654342289</v>
+      </c>
+      <c r="G10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10">
+        <v>2476</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10">
+        <v>65.15385345255226</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10">
+        <v>63.04183328682285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1472,22 +2677,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1495,25 +2700,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="D2">
-        <v>63.81048306105311</v>
+        <v>600</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2">
-        <v>61.71619469010028</v>
+        <v>162</v>
+      </c>
+      <c r="F2" t="s">
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="H2">
-        <v>837</v>
+        <v>11965</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1521,25 +2726,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="D3">
-        <v>64.26239510560578</v>
+        <v>600</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3">
-        <v>61.56387211013669</v>
+        <v>162</v>
+      </c>
+      <c r="F3" t="s">
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="H3">
-        <v>883</v>
+        <v>11483</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1547,25 +2752,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="D4">
-        <v>64.1495270510103</v>
+        <v>600</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4">
-        <v>64.26794617737897</v>
+        <v>162</v>
+      </c>
+      <c r="F4" t="s">
+        <v>163</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="H4">
-        <v>804</v>
+        <v>11482</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1573,168 +2778,155 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5">
-        <v>62.74970643811804</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5">
-        <v>62.18408991060545</v>
-      </c>
-      <c r="G5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5">
-        <v>1303</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2">
-        <v>600</v>
-      </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2">
-        <v>11965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3">
-        <v>600</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3">
-        <v>11482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4">
-        <v>600</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H4">
-        <v>11546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="D5">
         <v>600</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="H5">
+        <v>11546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6">
+        <v>600</v>
+      </c>
+      <c r="E6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6">
+        <v>13132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7">
+        <v>600</v>
+      </c>
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7">
         <v>11497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8">
+        <v>600</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8">
+        <v>11482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9">
+        <v>600</v>
+      </c>
+      <c r="E9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9">
+        <v>11485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10">
+        <v>600</v>
+      </c>
+      <c r="E10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10">
+        <v>11485</v>
       </c>
     </row>
   </sheetData>

--- a/output/only_primer/two_plasmid_system_result/two_plasmid_design_result.xlsx
+++ b/output/only_primer/two_plasmid_system_result/two_plasmid_design_result.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="196">
   <si>
     <t>ID</t>
   </si>
@@ -232,7 +232,31 @@
     <t>CCAGGTCTCAAGGCACTGAAATTTCCGTCATGCCGACCGAATCAATGGCACGGCTGATCTTTTATGCGCCTGATATGGATGGGCAAACAGACCCCGGTGAAGTAGTGTGGATTTGGGCACCAGCCGATGGCCCCCAGCAACCACCCCGTAAACGTGCCATCGTTGTTGTTGGAAGAAACCGAAACGCCATTTTAGGTCTGCTCATTTCCTGCAACCCCGAGCACCGCACTGATGAAGACTGGATCGACATTGGATCTGGCAGCTGGGACCCTCGAGGTCGCCAAAGTTGGGTACGACTCGACCGCGTTCTGGAGGAACTCTGGACC</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGT</t>
+    <t>CCAGGTCTCAATCCGGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAttgggtgcacgagtgggttacatcgaactggatctcaacagcggtaag</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAACCGGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATTCTGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCAGGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTGGGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCTAGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAATTAGTTTTAGAGCTAGAAATAGCAAGT</t>
+  </si>
+  <si>
+    <t>GGTCCAGAGTTccaaCAGCGTTTCTGGGTGAGCAA</t>
   </si>
   <si>
     <t>GGTCCAGAGTTCGGAGAAGGTGTACTTCTCGTGAATTACACTGTACCTGTTGCGT</t>
@@ -259,28 +283,49 @@
     <t>GGTCCAGAGTTTAATCTTATTGACTTCTTCTTGAATTACACTGTACCTGTTGCGT</t>
   </si>
   <si>
-    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCTCTTCCACATGAAGAGCAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCAATAAAGGCACGCGCAAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCATCTTTTGAATTTTCGCTTGCAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGCCACACAATTAGGCGGTCGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGACGCGCATTGGACCCTTCGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAGGTGAAACGTCTGCCTCCCAAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATCGGTGGAAGACTAAGAAGAACTCTGGACC</t>
-  </si>
-  <si>
-    <t>CCAGGTCTCAAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGATTTTCTCCACATAAGCTGGCAATGTTGCGACGCAACAGGTACAGTGTAATTCAATTAGAATAACTGAAGAAGAAACTCTGGACC</t>
+    <t>CCAGGTCTCAATCCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGAATTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGttggAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAttggTTCACGAGAAGTACACCTTCTCCGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAACCGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGAATTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGttggAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAttggTTCAAACGCGCACGGAAATAACCGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAATTCTGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGAATTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGttggAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAttggTTCACGTTCGCTTTTAAGTTTTCTAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAttggTTCAGCTGGCGGATTAACACACCGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCAGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGAATTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGttggAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAttggTTCAGCTTCCCAGGTTACGCGCAGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGTGGGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGAATTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGttggAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAttggTTCAACCCTCCGTCTGCAAAGTGGAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAGCTAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGAATTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGttggAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAttggTTCAGAAGAATCAGAAGGTGGCTAAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAATTAGTTTTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGGTGCTTTTTTTCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAATTAATTCCGCTAGATGACGTGCGGCTTCGAAAATCTCGTGATGGCAGGTTGGGCGACCAATAACTGCCTTAAAAAAATTACGCCCCGCCCTGCCACTCATCGCAGTACTGTTGTAATTCATTAAGCATTCTGCCGACATGGAAGCCATCACAGACGGCATGATGAACCTGAATCGCCAGCGGCATCAGCACCTTGTCGCCTTGCGTATAATATTTGCCCATGGTGAAAACGGGGGCGAAGAAGTTGTCCATATTGGCCACGTTTAAATCAAAACTGGTGAAACTCACCCAGGGATTGGCTGAGACGAAAAACATATTCTCAATAAACCCTTTAGGGAAATAGGCCAGGTTTTCACCGTAACACGCCACATCTTGCGAATATATGTGTAGAAACTGCCGGAAATCGTCGTGGTATTCACTCCAGAGCGATGAAAACGTTTCAGTTTGCTCATGGAAAACGGTGTAACAAGGGTGAACACTATCCCATATCACCAGCTCACCGTCTTTCATTGCCATACGGAACTCCGGATGAGCATTCATCAGGCGGGCAAGAATGTGAATAAAGGCCGGATAAAACTTGTGCTTATTTTTCTTTACGGTCTTTAAAAAGGCCGTAATATCCAGCTGAACGGTCTGGTTATAGGTACATTGAGCAACTGACTGAAATGCCTCAAAATGTTCTTTACGATGCCATTGGGATATATCAACGGTGGTATATCCAGTGATTTTTTTCTCCATTTTAGCTTCCTTAGCTCCTGAAAATCTCGTCGAAGCTCGGCGGATTTGTCCTACTCAAGCTGATCCGACAAAATCCACACATTATCCCAGGTGTCCGGATCGGTCAAATACGCTGCCAGCTCATAGACCGTATCCAAAGCATCCGGGGCTGATCCCCGGCGCCAGGGTGGTTTTTCTTTTCACCAGTGAGACGGGCAACAGCTGATTGCCCTTCACCGCCTGGCCCTGAGAGAGTTGCAGCAAGCGGTCCACGTGGTTTGCCCCAGCAGGCGAAAATCCTGTTTGATGGTGGTTAACGGCGGGATATAACATGAGCTGTCTTCGGTATCGTCGTATCCCACTACCGAGATATCCGCACCAACGCGCAGCCCGGACTCGGTAATGGCGCGCATTGCGCCCAGCGCCATCTGATCGTTGGCAACCAGCATCGCAGTGGGAACGATGCCCTCATTCAGCATTTGCATGGTTTGTTGAAAACCGGACATGGCACTCCAGTCGCCTTCCCGTTCCGCTATCGGCTGAATTTGATTGCGAGTGAGATATTTATGCCAGCCAGCCAGACGCAGACGCGCCGAGACAGAACTTAATGGGCCCGCTAACAGCGCGATTTGCTGGTGACCCAATGCGACCAGATGCTCCACGCCCAGTCGCGTACCGTCTTCATGGGAGAAAATAATACTGTTGATGGGTGTCTGGTCAGAGACATCAAGAAATAACGCCGGAACATTAGTGCAGGCAGCTTCCACAGCAATGGCATCCTGGTCATCCAGCGGATAGTTAATGATCAGCCCACTGACGCGTTGCGCGAGAAGATTGTGCACCGCCGCTTTACAGGCTTCGACGCCGCTTCGTTCTACCATCGACACCACCACGCTGGCACCCAGTTGATCGGCGCGAGATTTAATCGCCGCGACAATTTGCGACGGCGCGTGCAGGGCCAGACTGGAGGTGGCAACGCCAATCAGCAACGACTGTTTGCCCGCCAGTTGTTGTGCCACGCGGTTGGGAATGTAATTCAGCTCCGCCATCGCCGCTTCCACTTTTTCCCGCGTTTTCGCAGAAACGTGGCTGGCCTGGTTCACCACGCGGGAAACGGTCTGATAAGAGACACCGGCATACTCTGCGACATCGTATAACGTTACTGGTTTCACATTCACCACCCTGAATTGACTCTCTTCCGGGCGCTATCATGCCATACCGCGAAAGGTTTTGCACCATTCGATGGTGTCAACGTAAATGCCGCTTCGCCTTCGCGCGCGAATTGCAAGCTGATCCGGGCTTATCGACTGCACGGTGCACCAATGCTTCTGGCGTCAGGCAGCCATCGGAAGCTGTGGTATGGCTGTGCAGGTCGTAAATCACTGCATAATTCGTGTCGCTCAAGGCGCACTCCCGTTCTGGATAATGTTTTTTGCGCCGACATCATAACGGTTCTGGCAAATATTCTGAAATGAGCTGTTGACAATTAATCATCGGCTCGTATAATGTGTGGAATTGTGAGCGGATAACAATTTCACACAGGAAACAGAATTAATTAAGCTTAAAGGAGTTGAGAATGGATAAGAAATACTCAATAGGCTTAGATATCGGCACAAATAGCGTCGGATGGGCGGTGATCACTGATGAATATAAGGTTCCGTCTAAAAAGTTCAAGGTTCTGGGAAATACAGACCGCCACAGTATCAAAAAAAATCTTATAGGGGCTCTTTTATTTGACAGTGGAGAGACAGCGGAAGCGACTCGTCTCAAACGGACAGCTCGTAGAAGGTATACACGTCGGAAGAATCGTATTTGTTATCTACAGGAGATTTTTTCAAATGAGATGGCGAAAGTAGATGATAGTTTCTTTCATCGACTTGAAGAGTCTTTTTTGGTGGAAGAAGACAAGAAGCATGAACGTCATCCTATTTTTGGAAATATAGTAGATGAAGTTGCTTATCATGAGAAATATCCAACTATCTATCATCTGCGAAAAAAATTGGTAGATTCTACTGATAAAGCGGATTTGCGCTTAATCTATTTGGCCTTAGCGCATATGATTAAGTTTCGTGGTCATTTTTTGATTGAGGGAGATTTAAATCCTGATAATAGTGATGTGGACAAACTATTTATCCAGTTGGTACAAACCTACAATCAATTATTTGAAGAAAACCCTATTAACGCAAGTGGAGTAGATGCTAAAGCGATTCTTTCTGCACGATTGAGTAAATCAAGACGATTAGAAAATCTCATTGCTCAGCTCCCCGGTGAGAAGAAAAATGGCTTATTTGGGAATCTCATTGCTTTGTCATTGGGTTTGACCCCTAATTTTAAATCAAATTTTGATTTGGCAGAAGATGCTAAATTACAGCTTTCAAAAGATACTTACGATGATGATTTAGATAATTTATTGGCGCAAATTGGAGATCAATATGCTGATTTGTTTTTGGCAGCTAAGAATTTATCAGATGCTATTTTACTTTCAGATATCCTAAGAGTAAATACTGAAATAACTAAGGCTCCCCTATCAGCTTCAATGATTAAACGCTACGATGAACATCATCAAGACTTGACTCTTTTAAAAGCTTTAGTTCGACAACAACTTCCAGAAAAGTATAAAGAAATCTTTTTTGATCAATCAAAAAACGGATATGCAGGTTATATTGATGGGGGAGCTAGCCAAGAAGAATTTTATAAATTTATCAAACCAATTTTAGAAAAAATGGATGGTACTGAGGAATTATTGGTGAAACTAAATCGTGAAGATTTGCTGCGCAAGCAACGGACCTTTGACAACGGCTCTATTCCCCATCAAATTCACTTGGGTGAGCTGCATGCTATTTTGAGAAGACAAGAAGACTTTTATCCATTTTTAAAAGACAATCGTGAGAAGATTGAAAAAATCTTGACTTTTCGAATTCCTTATTATGTTGGTCCATTGGCGCGTGGCAATAGTCGTTTTGCATGGATGACTCGGAAGTCTGAAGAAACAATTACCCCATGGAATTTTGAAGAAGTTGTCGATAAAGGTGCTTCAGCTCAATCATTTATTGAACGCATGACAAACTTTGATAAAAATCTTCCAAATGAAAAAGTACTACCAAAACATAGTTTGCTTTATGAGTATTTTACGGTTTATAACGAATTGACAAAGGTCAAATATGTTACTGAAGGAATGCGAAAACCAGCATTTCTTTCAGGTGAACAGAAGAAAGCCATTGTTGATTTACTCTTCAAAACAAATCGAAAAGTAACCGTTAAGCAATTAAAAGAAGATTATTTCAAAAAAATAGAATGTTTTGATAGTGTTGAAATTTCAGGAGTTGAAGATAGATTTAATGCTTCATTAGGTACCTACCATGATTTGCTAAAAATTATTAAAGATAAAGATTTTTTGGATAATGAAGAAAATGAAGATATCTTAGAGGATATTGTTTTAACATTGACCTTATTTGAAGATAGGGAGATGATTGAGGAAAGACTTAAAACATATGCTCACCTCTTTGATGATAAGGTGATGAAACAGCTTAAACGTCGCCGTTATACTGGTTGGGGACGTTTGTCTCGAAAATTGATTAATGGTATTAGGGATAAGCAATCTGGCAAAACAATATTAGATTTTTTGAAATCAGATGGTTTTGCCAATCGCAATTTTATGCAGCTGATCCATGATGATAGTTTGACATTTAAAGAAGACATTCAAAAAGCACAAGTGTCTGGACAAGGCGATAGTTTACATGAACATATTGCAAATTTAGCTGGTAGCCCTGCTATTAAAAAAGGTATTTTACAGACTGTAAAAGTTGTTGATGAATTGGTCAAAGTAATGGGGCGGCATAAGCCAGAAAATATCGTTATTGAAATGGCACGTGAAAATCAGACAACTCAAAAGGGCCAGAAAAATTCGCGAGAGCGTATGAAACGAATCGAAGAAGGTATCAAAGAATTAGGAAGTCAGATTCTTAAAGAGCATCCTGTTGAAAATACTCAATTGCAAAATGAAAAGCTCTATCTCTATTATCTCCAAAATGGAAGAGACATGTATGTGGACCAAGAATTAGATATTAATCGTTTAAGTGATTATGATGTCGATCACATTGTTCCACAAAGTTTCCTTAAAGACGATTCAATAGACAATAAGGTCTTAACGCGTTCTGATAAAAATCGTGGTAAATCGGATAACGTTCCAAGTGAAGAAGTAGTCAAAAAGATGAAAAACTATTGGAGACAACTTCTAAACGCCAAGTTAATCACTCAACGTAAGTTTGATAATTTAACGAAAGCTGAACGTGGAGGTTTGAGTGAACTTGATAAAGCTGGTTTTATCAAACGCCAATTGGTTGAAACTCGCCAAATCACTAAGCATGTGGCACAAATTTTGGATAGTCGCATGAATACTAAATACGATGAAAATGATAAACTTATTCGAGAGGTTAAAGTGATTACCTTAAAATCTAAATTAGTTTCTGACTTCCGAAAAGATTTCCAATTCTATAAAGTACGTGAGATTAACAATTACCATCATGCCCATGATGCGTATCTAAATGCCGTCGTTGGAACTGCTTTGATTAAGAAATATCCAAAACTTGAATCGGAGTTTGTCTATGGTGATTATAAAGTTTATGATGTTCGTAAAATGATTGCTAAGTCTGAGCAAGAAATAGGCAAAGCAACCGCAAAATATTTCTTTTACTCTAATATCATGAACTTCTTCAAAACAGAAATTACACTTGCAAATGGAGAGATTCGCAAACGCCCTCTAATCGAAACTAATGGGGAAACTGGAGAAATTGTCTGGGATAAAGGGCGAGATTTTGCCACAGTGCGCAAAGTATTGTCCATGCCCCAAGTCAATATTGTCAAGAAAACAGAAGTACAGACAGGCGGATTCTCCAAGGAGTCAATTTTACCAAAAAGAAATTCGGACAAGCTTATTGCTCGTAAAAAAGACTGGGATCCAAAAAAATATGGTGGTTTTGATAGTCCAACGGTAGCTTATTCAGTCCTAGTGGTTGCTAAGGTGGAAAAAGGGAAATCGAAGAAGTTAAAATCCGTTAAAGAGTTACTAGGGATCACAATTATGGAAAGAAGTTCCTTTGAAAAAAATCCGATTGACTTTTTAGAAGCTAAAGGATATAAGGAAGTTAAAAAAGACTTAATCATTAAACTACCTAAATATAGTCTTTTTGAGTTAGAAAACGGTCGTAAACGGATGCTGGCTAGTGCCGGAGAATTACAAAAAGGAAATGAGCTGGCTCTGCCAAGCAAATATGTGAATTTTTTATATTTAGCTAGTCATTATGAAAAGTTGAAGGGTAGTCCAGAAGATAACGAACAAAAACAATTGTTTGTGGAGCAGCATAAGCATTATTTAGATGAGATTATTGAGCAAATCAGTGAATTTTCTAAGCGTGTTATTTTAGCAGATGCCAATTTAGATAAAGTTCTTAGTGCATATAACAAACATAGAGACAAACCAATACGTGAACAAGCAGAAAATATTATTCATTTATTTACGTTGACGAATCTTGGAGCTCCCGCTGCTTTTAAATATTTTGATACAACAATTGATCGTAAACGATATACGTCTACAAAAGAAGTTTTAGATGCCACTCTTATCCATCAATCCATCACTGGTCTTTATGAAACACGCATTGATTTGAGTCAGCTAGGAGGTGACTGAGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTCTAGGTTTATACATAGGCGAGTACTCTGTTATGGAGTCAGATCTTAGCGGCTCTTAAGGAACCGAAGCGAATTAGAGCTAGAAATAGCAAGTTAAAATAAGGCTAGTCCGTTATCAACTTGAAAAAGTGGCACCGAGTCGCTGCAGGTCGACTCTAGAGGATCCCCGGGTACCGAGCTCGAATTCAGCTTGGCTGTTTTGGCGGATGAGAGAAGATTTTCAGCCTGATACAGATTAAATCAGAACGCAGAAGCGGTCTGATAAAACAGAATTTGCCTGGCGGCAGTAGCGCGGTGGTCCCACCTGACCCCATGCCGAACTCAGAAGTGAAACGCCGTAGCGCCGATGGTAGTGTGGGGTCTGCCCATGCGAGAGTAGGGAACTGCCAGGCATCAAATAAAACGAAAGGCTCAGTCGAAAGACTGGGCCTTTCGTTTTATCTGTTGTTTGTCGGTGAACGCTCTCCTGAGTAGGACAAATCCGCCGGGAGCGGATTTGAACGTTGCGAAGCAACGGCCCGGAGGGTGGCGGGCAGGACGCCCGCCATAAACTGCCAGGCATCAAATTAAGCAGAAGGCCATCCTGACGGATGGCCTTTTTGCGTTTCTACAAACTCTTTTGTTTATTTTTCTAAATACATTCAAATATGTATCCGCTCATGAGACAATAACCCTGATAAATGCTTCAATAATATTGAAAAAGGAAGAGTATGAGTATTCAACATTTCCGTGTCGCCCTTATTCCCTTTTTTGCGGCATTTTGCCTTCCTGTTTTTGCTCACCCAGAAACGCTGttggAACTCTGGACC</t>
+  </si>
+  <si>
+    <t>CCAGGTCTCAAttggTTCAAGAAGAAGTCAATAAGATTAAACTCTGGACC</t>
   </si>
   <si>
     <t>ccdb_plasmid;primer</t>
@@ -317,33 +362,6 @@
   </si>
   <si>
     <t>SEQUENCING_PRIMER_1_TM</t>
-  </si>
-  <si>
-    <t>153019_ecoil_ybeL_ins;153019_ecoil_ybeL_ins;BA000036.3:153019-153020</t>
-  </si>
-  <si>
-    <t>Cgl0006_1176_G_A_sub;Cgl0006_1176_G_A_sub;BA000036.3:6529-6530</t>
-  </si>
-  <si>
-    <t>Cgl0141_cds_del;Cgl0141_cds_del;BA000036.3:153222-155613</t>
-  </si>
-  <si>
-    <t>Cgl0591_-1_Ppgk_promoter_ins;Cgl0591_-1_Ppgk_promoter_ins;BA000036.3:604469-604470</t>
-  </si>
-  <si>
-    <t>Cgl0851_ecoli_pgi_sub;Cgl0851_ecoli_pgi_sub;BA000036.3:907755-909378</t>
-  </si>
-  <si>
-    <t>Cgl1386_327_18to15_sub;Cgl1386_327_18to15_sub;BA000036.3:1454441-1454459</t>
-  </si>
-  <si>
-    <t>Cgl1436_1113_CAA_del;Cgl1436_1113_CAA_del;BA000036.3:1514089-1514092</t>
-  </si>
-  <si>
-    <t>Cgl1790_1647_TCC_sub;Cgl1790_1647_TCC_sub;BA000036.3:1899017-1899020</t>
-  </si>
-  <si>
-    <t>Cgl2342_213_GCA_ins;Cgl2342_213_GCA_ins;BA000036.3:2484874-2484875</t>
   </si>
   <si>
     <t>TGGTCAATGTCGCGGGGG</t>
@@ -1177,22 +1195,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1200,22 +1218,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D2">
         <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H2">
         <v>11346</v>
@@ -1226,22 +1244,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D3">
         <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="H3">
         <v>11346</v>
@@ -1252,22 +1270,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D4">
         <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H4">
         <v>11346</v>
@@ -1278,22 +1296,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D5">
         <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H5">
         <v>11346</v>
@@ -1304,22 +1322,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D6">
         <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H6">
         <v>11346</v>
@@ -1330,22 +1348,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D7">
         <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H7">
         <v>11346</v>
@@ -1356,22 +1374,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D8">
         <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G8" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H8">
         <v>11346</v>
@@ -1382,22 +1400,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D9">
         <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G9" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H9">
         <v>11346</v>
@@ -1408,22 +1426,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D10">
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G10" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H10">
         <v>11346</v>
@@ -1649,7 +1667,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1686,13 +1704,13 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F2">
-        <v>486</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1700,19 +1718,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F3">
-        <v>486</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1720,19 +1738,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F4">
-        <v>486</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1740,19 +1758,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F5">
-        <v>486</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1760,19 +1778,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F6">
-        <v>486</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1780,19 +1798,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F7">
-        <v>486</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1800,19 +1818,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F8">
-        <v>486</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1820,19 +1838,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F9">
-        <v>486</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1840,7 +1858,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
@@ -1849,10 +1867,190 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10">
+        <v>7637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12">
+        <v>7637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14">
+        <v>7637</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16">
+        <v>7637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18">
+        <v>7637</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
         <v>85</v>
       </c>
-      <c r="F10">
-        <v>486</v>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1893,16 +2091,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F2">
         <v>10904</v>
@@ -1949,13 +2147,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F2">
         <v>505</v>
@@ -1969,13 +2167,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F3">
         <v>1672</v>
@@ -2002,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2013,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D2">
         <v>62.40252848344147</v>
@@ -2027,10 +2225,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D3">
         <v>62.40252848344147</v>
@@ -2041,10 +2239,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D4">
         <v>62.40252848344147</v>
@@ -2055,10 +2253,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D5">
         <v>62.40252848344147</v>
@@ -2069,10 +2267,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>62.40252848344147</v>
@@ -2083,10 +2281,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D7">
         <v>62.40252848344147</v>
@@ -2097,10 +2295,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D8">
         <v>62.40252848344147</v>
@@ -2111,10 +2309,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D9">
         <v>62.40252848344147</v>
@@ -2125,10 +2323,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D10">
         <v>62.40252848344147</v>
@@ -2155,28 +2353,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2187,13 +2385,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D2">
         <v>60.59785390246162</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F2">
         <v>65.39684924843954</v>
@@ -2207,13 +2405,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D3">
         <v>60.59785390246162</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F3">
         <v>65.39684924843954</v>
@@ -2227,7 +2425,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D4">
         <v>60.59785390246162</v>
@@ -2241,13 +2439,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>60.59785390246162</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F5">
         <v>65.39684924843954</v>
@@ -2261,25 +2459,25 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>60.59785390246162</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F6">
         <v>65.39684924843954</v>
       </c>
       <c r="G6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H6">
         <v>65.15385345255226</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J6">
         <v>63.04183328682285</v>
@@ -2293,13 +2491,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D7">
         <v>60.59785390246162</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F7">
         <v>65.39684924843954</v>
@@ -2313,7 +2511,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>60.59785390246162</v>
@@ -2327,13 +2525,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D9">
         <v>60.59785390246162</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F9">
         <v>65.39684924843954</v>
@@ -2347,13 +2545,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D10">
         <v>60.59785390246162</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F10">
         <v>65.39684924843954</v>
@@ -2380,34 +2578,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2418,19 +2616,19 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D2">
         <v>59.54133127379924</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F2">
         <v>64.7641895140049</v>
       </c>
       <c r="G2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H2">
         <v>829</v>
@@ -2444,19 +2642,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D3">
         <v>65.40613093626928</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F3">
         <v>64.63528015163649</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H3">
         <v>823</v>
@@ -2470,19 +2668,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D4">
         <v>64.93150880859542</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F4">
         <v>55.81070237481293</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H4">
         <v>827</v>
@@ -2496,19 +2694,19 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D5">
         <v>64.7068639825622</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F5">
         <v>63.12237729036769</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H5">
         <v>816</v>
@@ -2522,19 +2720,19 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D6">
         <v>63.81048306105311</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F6">
         <v>61.71619469010028</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H6">
         <v>837</v>
@@ -2548,19 +2746,19 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D7">
         <v>64.26239510560578</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F7">
         <v>61.56387211013669</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H7">
         <v>883</v>
@@ -2574,19 +2772,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D8">
         <v>64.1495270510103</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F8">
         <v>64.26794617737897</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H8">
         <v>804</v>
@@ -2600,19 +2798,19 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D9">
         <v>62.74970643811804</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F9">
         <v>62.18408991060545</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H9">
         <v>1303</v>
@@ -2626,31 +2824,31 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D10">
         <v>64.96789884238098</v>
       </c>
       <c r="E10" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F10">
         <v>64.83200654342289</v>
       </c>
       <c r="G10" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H10">
         <v>2476</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J10">
         <v>65.15385345255226</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L10">
         <v>63.04183328682285</v>
@@ -2677,22 +2875,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2703,19 +2901,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D2">
         <v>600</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H2">
         <v>11965</v>
@@ -2729,19 +2927,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D3">
         <v>600</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H3">
         <v>11483</v>
@@ -2755,19 +2953,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D4">
         <v>600</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H4">
         <v>11482</v>
@@ -2781,19 +2979,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D5">
         <v>600</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H5">
         <v>11546</v>
@@ -2807,19 +3005,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D6">
         <v>600</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="H6">
         <v>13132</v>
@@ -2833,19 +3031,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D7">
         <v>600</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H7">
         <v>11497</v>
@@ -2859,19 +3057,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D8">
         <v>600</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H8">
         <v>11482</v>
@@ -2885,19 +3083,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D9">
         <v>600</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G9" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="H9">
         <v>11485</v>
@@ -2911,19 +3109,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D10">
         <v>600</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F10" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H10">
         <v>11485</v>
